--- a/doc/Iterationsplan Ideensammlung.xlsx
+++ b/doc/Iterationsplan Ideensammlung.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16665" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blatt1" sheetId="1" r:id="rId1"/>
@@ -243,18 +243,23 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Besuchter Link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besuchter Link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -582,37 +587,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:BF49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.6640625" customWidth="1"/>
-    <col min="3" max="122" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="73.625" customWidth="1"/>
+    <col min="3" max="122" width="4.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:14">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:14" ht="23">
+    <row r="7" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:14">
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
@@ -650,12 +655,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="2:14" ht="18">
+    <row r="9" spans="2:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:14">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>8</v>
       </c>
@@ -664,7 +669,7 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="2:14">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>9</v>
       </c>
@@ -672,40 +677,40 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="2:14">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="2:14">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="2:14">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
       <c r="N14" s="8"/>
     </row>
-    <row r="15" spans="2:14">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="8"/>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
     </row>
-    <row r="16" spans="2:14" ht="23">
+    <row r="16" spans="2:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:58">
+    <row r="17" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
@@ -878,77 +883,77 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="2:58">
+    <row r="18" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:58">
+    <row r="19" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="2:58">
+    <row r="20" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:58">
+    <row r="22" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:58">
+    <row r="23" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="2:58">
+    <row r="24" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="2:58">
+    <row r="25" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="2:58">
+    <row r="26" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="2:58">
+    <row r="27" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="2:58">
+    <row r="29" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="2:58">
+    <row r="30" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="2:58">
+    <row r="31" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="2:58">
+    <row r="32" spans="2:58" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="2:55" ht="23">
+    <row r="34" spans="2:55" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="2:55">
+    <row r="35" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
@@ -1112,62 +1117,62 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="2:55">
+    <row r="36" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="2:55">
+    <row r="37" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="2:55">
+    <row r="38" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="2:55">
+    <row r="39" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="2:55">
+    <row r="41" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:55">
+    <row r="42" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" spans="2:55">
+    <row r="43" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:55">
+    <row r="44" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="2:55">
+    <row r="45" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="47" spans="2:55">
+    <row r="47" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="2:55">
+    <row r="48" spans="2:55" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>36</v>
       </c>
